--- a/data/trans_dic/iP30A5_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30A5_2023-Edad-trans_dic.xlsx
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>81,43%</t>
+          <t>82,62%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>79,05%</t>
+          <t>81,62%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>80,32%</t>
+          <t>82,13%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>77,61; 84,57</t>
+          <t>77,48; 86,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>74,92; 83,0</t>
+          <t>76,93; 85,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>77,56; 83,01</t>
+          <t>78,98; 85,19</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>82,62%</t>
+          <t>81,43%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>81,62%</t>
+          <t>79,05%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>82,13%</t>
+          <t>80,32%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>77,48; 86,66</t>
+          <t>77,61; 84,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>76,93; 85,89</t>
+          <t>74,92; 83,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>78,98; 85,19</t>
+          <t>77,56; 83,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP30A5_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30A5_2023-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>85,46%</t>
+          <t>83,19%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>82,8%</t>
+          <t>88,61%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>84,2%</t>
+          <t>85,99%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>79,67; 90,19</t>
+          <t>72,74; 90,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>75,83; 87,69</t>
+          <t>79,95; 94,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>79,95; 87,9</t>
+          <t>79,68; 91,21</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>82,62%</t>
+          <t>84,93%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>81,62%</t>
+          <t>81,83%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>82,13%</t>
+          <t>83,46%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>77,48; 86,66</t>
+          <t>80,0; 88,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>76,93; 85,89</t>
+          <t>76,46; 86,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>78,98; 85,19</t>
+          <t>80,03; 86,3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>81,43%</t>
+          <t>82,15%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>79,05%</t>
+          <t>81,47%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>80,32%</t>
+          <t>81,83%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>77,61; 84,57</t>
+          <t>76,5; 86,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>74,92; 83,0</t>
+          <t>75,64; 86,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>77,56; 83,01</t>
+          <t>77,84; 84,95</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>82,35%</t>
+          <t>80,82%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>80,39%</t>
+          <t>77,3%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>81,42%</t>
+          <t>79,15%</t>
         </is>
       </c>
     </row>
@@ -729,23 +729,81 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>79,62; 84,83</t>
+          <t>76,28; 85,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>77,53; 82,93</t>
+          <t>71,76; 81,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>79,48; 83,32</t>
+          <t>75,36; 82,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>82,35%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>80,39%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>81,42%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>79,63; 84,78</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>77,61; 83,14</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>79,48; 83,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
